--- a/2.01_Allgemeine_Pflege.xlsx
+++ b/2.01_Allgemeine_Pflege.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RuellMag\Documents\UAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32ED537-81A2-4938-A01F-47247FFED401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8290DAFD-DE84-4F78-B4E8-E75E1E75F5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{7B11F82F-C939-3448-B023-7F0894FA6D65}"/>
   </bookViews>
@@ -859,7 +859,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="50" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomLeft" activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
